--- a/tabela-produtos.xlsx
+++ b/tabela-produtos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
   <si>
     <t>nome</t>
   </si>
@@ -25,319 +25,316 @@
     <t>Mochila Anti Furto Notebook Saida Cabo Aux Usb Fone Ouvido</t>
   </si>
   <si>
+    <t>Fone De Ouvido Sem Fio Qcy T1c Tws Bluetooth 5.1 Case 380mah Cor Preto (grave reforçado)</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Tune 500 Com Fio E Microfone Preto Jbl</t>
+  </si>
+  <si>
+    <t>Fone de ouvido Headset Gamer HAVIT H2002d P3 PS3/PS4/XBOX/PC Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Sem Fio Tws Microfone Todos Celular</t>
+  </si>
+  <si>
+    <t>Fone de ouvido Tune 520bt Branco JBL</t>
+  </si>
+  <si>
+    <t>Fone de ouvido in-ear Samsung EG920 EO-EG920 white</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Intra-auricular Com Fio Tune 110 Branco Jbl</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Para iPhone 7 8 Xr X 11 12 13 14 15</t>
+  </si>
+  <si>
+    <t>Mini Fone Bluetooth Sem Fio Tws Original Promoção Microfone</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-i120k-a30pf I5 16gb 512 15.6 W11</t>
+  </si>
+  <si>
+    <t>Fone Qcy Ht05 Melobuds Bluetooth 5.2 Com Cancelamento Anc Cor Preto</t>
+  </si>
+  <si>
+    <t>Headset Gamer Para Consoles E Pc Driver 40mm Quantum 100 Preto Jbl</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Corrida Bluetooth Regulável Entrada P2 Mp3</t>
+  </si>
+  <si>
     <t>Fone De Ouvido Bluetooth 5.0 Par Sem Fio Duplo</t>
   </si>
   <si>
-    <t>Fone de ouvido sem fio JBL Tune 520BT preto</t>
+    <t>Fone De Ouvido Gamer Dj Musicos Retorno Palco In-ear C/case</t>
+  </si>
+  <si>
+    <t>Fone de ouvido in-ear gamer sem fio Bluetooth F9-5 TWS potente</t>
+  </si>
+  <si>
+    <t>Fone Bluetooth 3°geração Compatível iPhone XR 11 12 13 14 15</t>
   </si>
   <si>
     <t>7 Em 1 Escova Limpeza AirPods/teclado/fone Ouvido/celular</t>
   </si>
   <si>
-    <t>Mini Fone Bluetooth Sem Fio Tws Original Promoção Microfone</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Tune 500 Com Fio E Microfone Preto Jbl</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Qcy T13 Com 4 Microfones E Bluetooth 5.1 Cor Preto</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Sem Fio Qcy T1c Tws Bluetooth 5.1 Case 380mah Cor Preto (grave reforçado)</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Bluetooth Sem Fio Tws Microfone Todos Celular</t>
-  </si>
-  <si>
-    <t>Kit 10 Fone Ouvido Intra C/ Microfone Atacado Revenda Lehmox</t>
-  </si>
-  <si>
-    <t>Headset Gamer Para Consoles E Pc Driver 40mm Quantum 100 Preto Jbl</t>
+    <t>Fone De Ouvido Tipo C Com Microfone Para Samsung Xiaomi</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-i120k-a10p 15.6 I3 8gb 256gb W11</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Wave Flex Preto Jbl</t>
+  </si>
+  <si>
+    <t>Fone Sem Fio Compatível Android iPhone 7 8 X 11 12 13 14 15</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Philips True Wireless Tat1108bk/00 color Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Tws Bluetooth 5.1 Original Kaidi 771 Cor Branco</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido F9-5 Bluetooth 5.3 - Original Power Bank + Nf</t>
+  </si>
+  <si>
+    <t>Notebook Dell I15-i1100-a25p I3 4gb 256gb Ssd 15.6'' W11 Cor Apollo Preto Carbono</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio I12 Tws Bluetooth Com Touch</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Philips 1000 Series TAT1235 Cor Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth I12 Tws Sem Fio Touch Recarregável Cor Branco</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Headset Sem Fio Led Alta Fidelidade - Nf</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Tws  Baseus Encok Wm01 Cor Branco</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Kz Edx Pro Dj Musicos Retorno Palco In-ear</t>
+  </si>
+  <si>
+    <t>Notebook Celeron 15.6 128gb Ssd 4gb W11 82bu0006br Lenovo Cor Prateado</t>
   </si>
   <si>
     <t>Fone de ouvido  sem fio TWS F9-5 BTH-F9-5 preto</t>
   </si>
   <si>
-    <t>Telefone Fixo Elgin Tcf 2000 Preto</t>
+    <t>Fone Bluetooth E10 Compatível C/ iPhone Android Prova D'água</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Tws Bluetooth 5.1 Original Kaidi</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 I5-1235u Windows 11 Home 8gb 256gb Ssd Grafite</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Gatinho Bluetooth Infantil Led Menino Menina</t>
+  </si>
+  <si>
+    <t>Fone Bluetooth Esportivo Compatível C/ iPhone E Android</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Bluetooth In-ear Duplo Tws Premium</t>
+  </si>
+  <si>
+    <t>Jbl Tune 720bt - Preto</t>
+  </si>
+  <si>
+    <t>Tws F9-5 Fone De Ouvido Bluetooth A Prova Dágua E Powerbank</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido On-ear 520bt Comando De Voz Bluetooth Jbl Cor Azul Cor da luz Azul</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Tour Pro 2 Preto Jbl</t>
+  </si>
+  <si>
+    <t>Fone Com Fio E Microfone Som Alto Graves Potentes Claro</t>
+  </si>
+  <si>
+    <t>Fones De Ouvido I9s Tws Bluetooth Sem Fio Recarregável</t>
+  </si>
+  <si>
+    <t>Telefone Sem Fio Intelbras Ts 3110 Preto Visor Luminoso Com Identificação de Chamadas</t>
+  </si>
+  <si>
+    <t>Fone de ouvido QCY True Wireless Earbuds QCY HT05 MeloBuds BH21HT05A branco</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Jbl Wave Buds Bluetooth True Wireless - Preto Cor Preto</t>
   </si>
   <si>
     <t>Fone Ouvido Bluetooth Compativel Com Samsung Xaiomi iPhone</t>
   </si>
   <si>
-    <t>Fone De Ouvido H'maston EJ-S8 P2 Com Microfone Preto</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Sem Fio Bluetooth Tah1108bk/55 Preto Philips</t>
-  </si>
-  <si>
-    <t>Fone de ouvido Headset Gamer HAVIT H2002d P3 PS3/PS4/XBOX/PC Preto</t>
-  </si>
-  <si>
-    <t>Kit 10 Fones Ouvido Intra C/ Microfone Atacado Revenda C/nf</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Kz Edx Pro Graves Excelentes Sem Mic + Nf-e</t>
-  </si>
-  <si>
-    <t>Fone de ouvido Tune 520bt Branco JBL</t>
-  </si>
-  <si>
-    <t>Fone de ouvido in-ear Samsung EG920 EO-EG920 white</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Gamer Dj Musicos Retorno Palco In-ear C/case</t>
-  </si>
-  <si>
-    <t>Tablet Samsung Galaxy Tab A9+ 5g 64gb 4gb Ram Grafite</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Qcy T13 Com 4 Microfones E Bluetooth 5.1 BH22DT10A Cor Branco</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Corrida Bluetooth Regulável Entrada P2 Mp3</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Sem Fio Wave Flex Preto Jbl</t>
-  </si>
-  <si>
-    <t>Fone Qcy Ht05 Melobuds Bluetooth 5.2 Com Cancelamento Anc Cor Preto</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 I5-1235u Windows 11 Home 8gb 256gb Ssd Grafite</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Philips True Wireless Tat1108bk/00 color Preto</t>
-  </si>
-  <si>
-    <t>Fone Bluetooth 3°geração Compatível iPhone XR 11 12 13 14 15</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Sem Fio Philips 1000 Series TAT1235 Cor Preto</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido On-ear 520bt Comando De Voz Bluetooth Jbl Cor Azul Cor da luz Azul</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido F9-5 Bluetooth 5.3 - Original Power Bank + Nf</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Sem Fio Tws  Baseus Encok Wm01 Cor Branco</t>
-  </si>
-  <si>
-    <t>Fone Sem Fio Compatível Android iPhone 7 8 X 11 12 13 14 15</t>
-  </si>
-  <si>
-    <t>Notebook Celeron 15.6 128gb Ssd 4gb W11 82bu0006br Lenovo Cor Prateado</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Bluetooth I12 Tws Sem Fio Touch Recarregável Cor Branco</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Headset Sem Fio Led Alta Fidelidade - Nf</t>
-  </si>
-  <si>
-    <t>Tablet Ptb8rrg 4g 32gb Tela 8'' Android 10 Wi-fi Philco Cor Rosa-claro</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Kz Edx Pro Dj Musicos Retorno Palco In-ear</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Sem Fio Tws Bluetooth 5.1 Original Kaidi</t>
-  </si>
-  <si>
-    <t>Tws F9-5 Fone De Ouvido Bluetooth A Prova Dágua E Powerbank</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Gatinho Bluetooth Infantil Led Menino Menina</t>
-  </si>
-  <si>
-    <t>Fone de ouvido in-ear gamer sem fio Bluetooth F9-5 TWS potente</t>
-  </si>
-  <si>
-    <t>Fone Com Fio E Microfone Som Alto Graves Potentes Claro</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Sem Fio Bluetooth In-ear Duplo Tws Premium</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Sem Fio Tour Pro 2 Preto Jbl</t>
-  </si>
-  <si>
-    <t>Fone Ouvido Lightning H'maston Para iPhone 7 8 X Xr Xs Cor Branco</t>
-  </si>
-  <si>
-    <t>Fone Bluetooth E10 Compatível C/ iPhone Android Prova D'água</t>
-  </si>
-  <si>
-    <t>Telefone Sem Fio Intelbras Ts 3110 Preto Visor Luminoso Com Identificação de Chamadas</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Retorno De Palco Kz Edx Pro Sem Microfone</t>
-  </si>
-  <si>
-    <t>Fone De Ouvido Taue101bk/00 Com Microfone Philips Cor Preto</t>
-  </si>
-  <si>
-    <t>Fone Bluetooth Esportivo Compatível C/ iPhone E Android</t>
-  </si>
-  <si>
-    <t>Headphone Over-ear Bluetooth Wb Gyda 100 Horas De Uso Cor Preto</t>
+    <t>Fone de ouvido over-ear sem fio Edifier W800BT Plus preto com luz LED</t>
+  </si>
+  <si>
+    <t>Fone de ouvido JBL Wave Buds JBLWBUDSBLK branco</t>
   </si>
   <si>
     <t>78,90</t>
   </si>
   <si>
+    <t>117,30</t>
+  </si>
+  <si>
+    <t>139,00</t>
+  </si>
+  <si>
+    <t>219,00</t>
+  </si>
+  <si>
+    <t>78,81</t>
+  </si>
+  <si>
+    <t>299,00</t>
+  </si>
+  <si>
+    <t>26,99</t>
+  </si>
+  <si>
+    <t>89,08</t>
+  </si>
+  <si>
+    <t>139,80</t>
+  </si>
+  <si>
+    <t>6.858,00</t>
+  </si>
+  <si>
+    <t>281,00</t>
+  </si>
+  <si>
+    <t>229,59</t>
+  </si>
+  <si>
+    <t>37,99</t>
+  </si>
+  <si>
+    <t>75,54</t>
+  </si>
+  <si>
+    <t>52,25</t>
+  </si>
+  <si>
+    <t>31,00</t>
+  </si>
+  <si>
+    <t>75,38</t>
+  </si>
+  <si>
+    <t>39,90</t>
+  </si>
+  <si>
+    <t>44,90</t>
+  </si>
+  <si>
+    <t>2.879,00</t>
+  </si>
+  <si>
+    <t>399,00</t>
+  </si>
+  <si>
     <t>54,00</t>
   </si>
   <si>
-    <t>299,00</t>
-  </si>
-  <si>
-    <t>39,90</t>
-  </si>
-  <si>
-    <t>139,80</t>
-  </si>
-  <si>
-    <t>139,00</t>
-  </si>
-  <si>
-    <t>134,00</t>
-  </si>
-  <si>
-    <t>117,30</t>
-  </si>
-  <si>
-    <t>78,81</t>
-  </si>
-  <si>
-    <t>60,65</t>
-  </si>
-  <si>
-    <t>229,59</t>
+    <t>78,92</t>
+  </si>
+  <si>
+    <t>199,00</t>
+  </si>
+  <si>
+    <t>61,47</t>
+  </si>
+  <si>
+    <t>41,99</t>
+  </si>
+  <si>
+    <t>3.499,00</t>
+  </si>
+  <si>
+    <t>29,20</t>
+  </si>
+  <si>
+    <t>299,84</t>
+  </si>
+  <si>
+    <t>21,11</t>
+  </si>
+  <si>
+    <t>89,90</t>
+  </si>
+  <si>
+    <t>229,79</t>
+  </si>
+  <si>
+    <t>82,75</t>
+  </si>
+  <si>
+    <t>2.799,00</t>
   </si>
   <si>
     <t>30,25</t>
   </si>
   <si>
-    <t>29,65</t>
-  </si>
-  <si>
-    <t>125,11</t>
-  </si>
-  <si>
-    <t>15,30</t>
-  </si>
-  <si>
-    <t>99,05</t>
-  </si>
-  <si>
-    <t>219,00</t>
-  </si>
-  <si>
-    <t>49,99</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>26,99</t>
-  </si>
-  <si>
-    <t>52,25</t>
-  </si>
-  <si>
-    <t>75,54</t>
-  </si>
-  <si>
-    <t>1.999,00</t>
-  </si>
-  <si>
-    <t>138,00</t>
-  </si>
-  <si>
-    <t>37,99</t>
-  </si>
-  <si>
-    <t>399,00</t>
+    <t>47,75</t>
+  </si>
+  <si>
+    <t>61,00</t>
+  </si>
+  <si>
+    <t>4.665,00</t>
+  </si>
+  <si>
+    <t>71,99</t>
+  </si>
+  <si>
+    <t>76,25</t>
+  </si>
+  <si>
+    <t>314,30</t>
+  </si>
+  <si>
+    <t>67,02</t>
+  </si>
+  <si>
+    <t>299,03</t>
+  </si>
+  <si>
+    <t>1.599,00</t>
+  </si>
+  <si>
+    <t>26,70</t>
+  </si>
+  <si>
+    <t>59,53</t>
+  </si>
+  <si>
+    <t>133,46</t>
   </si>
   <si>
     <t>329,10</t>
   </si>
   <si>
-    <t>4.665,00</t>
-  </si>
-  <si>
-    <t>199,00</t>
-  </si>
-  <si>
-    <t>75,38</t>
-  </si>
-  <si>
-    <t>299,84</t>
-  </si>
-  <si>
-    <t>299,03</t>
-  </si>
-  <si>
-    <t>41,99</t>
-  </si>
-  <si>
-    <t>229,79</t>
-  </si>
-  <si>
-    <t>78,92</t>
-  </si>
-  <si>
-    <t>2.799,00</t>
-  </si>
-  <si>
-    <t>21,11</t>
-  </si>
-  <si>
-    <t>89,90</t>
-  </si>
-  <si>
-    <t>999,40</t>
-  </si>
-  <si>
-    <t>82,75</t>
-  </si>
-  <si>
-    <t>61,00</t>
-  </si>
-  <si>
-    <t>67,02</t>
-  </si>
-  <si>
-    <t>29,00</t>
-  </si>
-  <si>
-    <t>26,70</t>
-  </si>
-  <si>
-    <t>76,25</t>
-  </si>
-  <si>
-    <t>1.599,00</t>
-  </si>
-  <si>
-    <t>16,77</t>
-  </si>
-  <si>
-    <t>47,75</t>
-  </si>
-  <si>
-    <t>133,97</t>
-  </si>
-  <si>
-    <t>83,86</t>
-  </si>
-  <si>
-    <t>69,99</t>
-  </si>
-  <si>
-    <t>359,90</t>
+    <t>339,00</t>
+  </si>
+  <si>
+    <t>125,63</t>
+  </si>
+  <si>
+    <t>359,05</t>
+  </si>
+  <si>
+    <t>259,21</t>
   </si>
 </sst>
 </file>
@@ -695,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -722,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -730,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -738,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -746,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -754,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -762,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -770,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -778,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -786,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -794,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -802,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -810,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -818,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -826,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -834,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -842,44 +839,44 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -887,7 +884,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -895,7 +892,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -903,7 +900,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
@@ -911,7 +908,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>79</v>
@@ -919,7 +916,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>80</v>
@@ -927,7 +924,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>81</v>
@@ -935,7 +932,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>82</v>
@@ -943,7 +940,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>83</v>
@@ -951,7 +948,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
@@ -959,7 +956,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>85</v>
@@ -967,7 +964,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>86</v>
@@ -975,7 +972,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
@@ -983,7 +980,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>88</v>
@@ -991,7 +988,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>89</v>
@@ -999,7 +996,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -1007,7 +1004,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>91</v>
@@ -1015,7 +1012,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>92</v>
@@ -1023,55 +1020,55 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>98</v>
@@ -1079,7 +1076,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>99</v>
@@ -1087,7 +1084,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>100</v>
@@ -1095,7 +1092,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>101</v>
@@ -1103,7 +1100,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
@@ -1119,7 +1116,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>104</v>
@@ -1127,7 +1124,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>105</v>
@@ -1135,26 +1132,10 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/tabela-produtos.xlsx
+++ b/tabela-produtos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="291">
   <si>
     <t>nome</t>
   </si>
@@ -121,48 +121,45 @@
     <t>Fone De Ouvido Bluetooth I12 Tws Sem Fio Touch Recarregável Cor Branco</t>
   </si>
   <si>
-    <t>Fone i12 TWS Bluetooth Sem Fio Para Android E Ios + Caixinha E Cabo Cor Branco</t>
-  </si>
-  <si>
     <t>Telefone Pleno Intelbras com fio (preto)</t>
   </si>
   <si>
+    <t>Fone De Ouvido Stereo Hrebos Sport Com Mic. P3 Cor Branco</t>
+  </si>
+  <si>
     <t>Fone Bluetooth Premium Compatível Air Pods Pro Cor Branco</t>
   </si>
   <si>
+    <t>Fone De Ouvido Headset Sem Fio Led Alta Fidelidade - Nf</t>
+  </si>
+  <si>
     <t>Fone De Ouvido Gatinho Bluetooth Infantil Led Menino Menina</t>
   </si>
   <si>
-    <t>Fone De Ouvido Stereo Hrebos Sport Com Mic. P3 Cor Branco</t>
-  </si>
-  <si>
     <t>Notebook Aspire A515-57-55b8 I5 8gb 256gb 15,6'' W11 Acer</t>
   </si>
   <si>
-    <t>Fone De Ouvido Headset Sem Fio Led Alta Fidelidade - Nf</t>
-  </si>
-  <si>
     <t>Fone De Ouvido Bluetooth Tune 125bt Preto Jbl</t>
   </si>
   <si>
+    <t>Fone De Ouvido Sem Fio Tws Bluetooth 5.1 Original Kaidi</t>
+  </si>
+  <si>
     <t>Fone Com Fio E Microfone Som Alto Graves Potentes Claro</t>
   </si>
   <si>
-    <t>Fone De Ouvido Sem Fio Tws Bluetooth 5.1 Original Kaidi</t>
+    <t>Fone De Ouvido Sem Fio Tws Bluetooth 5.1 Original Kaidi 771 Cor Preto</t>
   </si>
   <si>
     <t>Fone De Ouvido Bluetooth JBL Tune 720BT Branco</t>
   </si>
   <si>
-    <t>Fone De Ouvido Sem Fio Tws Bluetooth 5.1 Original Kaidi 771 Cor Preto</t>
+    <t>Fone De Ouvido Sem Fio Bluetooth In-ear Duplo Tws Premium</t>
   </si>
   <si>
     <t>Telefone Fixo Elgin Tcf 2000 Preto</t>
   </si>
   <si>
-    <t>Fone De Ouvido Sem Fio Bluetooth In-ear Duplo Tws Premium</t>
-  </si>
-  <si>
     <t>Fone De Ouvido Super Bass Usb C Graves Profundos Reforçado Cor Preto</t>
   </si>
   <si>
@@ -178,6 +175,294 @@
     <t>iPad 9ª geração 10.2" Wi-Fi 64GB Cinza-espacial Apple</t>
   </si>
   <si>
+    <t>Fone De Ouvido Original Samsung Galaxy P2 Portátil Headset</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Esportivo Endurance Race Tws Jbl Cor Preto</t>
+  </si>
+  <si>
+    <t>Fone de ouvido in-ear Bluetooth sem fio Kaidi KD789 branco tws 5.3</t>
+  </si>
+  <si>
+    <t>Headphone Vibe Design Retro P2 Fone De Ouvido Multilaser Cor Preto</t>
+  </si>
+  <si>
+    <t>Fone de ouvido JBL Wave Buds JBLWBUDSBLK branco</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Sem Fio Microfone Tws Recarregável</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Wave Buds Sem Fio Preto Jbl</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Tws In ear</t>
+  </si>
+  <si>
+    <t>Fone de ouvido sem fio JBL Tune 520BT preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Bluetooth 5.0 In-ear Tws Hmaston Cor Preto</t>
+  </si>
+  <si>
+    <t>Notebook Acer A315-24p-r611 R5 8gb 256gb Ssd 15.6'' W11h Cor Prateado</t>
+  </si>
+  <si>
+    <t>Headphone Over-ear Bluetooth Wb Gyda 100 Horas De Uso Cor Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Bluetooth Earcuffs Condução Óssea Cor Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido In-ear Dapon F25 TWS Bluetooth 5.0</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Jbl Tune Flex Bluetooth Sem Fio Preto Jbl</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Bluetooth A6s Várias Cores Novo</t>
+  </si>
+  <si>
+    <t>Fone de ouvido over-ear gamer Havit Gamer H2232D branco com luz  rgb LED</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido F9-5 Bluetooth 5.3 - Original Power Bank + Nf</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Retorno De Palco Qkz Ak6 Com Microfone + Case Cor Azul</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Ambie Tipo Brinco Earcuffs 5.3 +nfe</t>
+  </si>
+  <si>
+    <t>Fones De Ouvido I9s Tws Bluetooth Sem Fio Recarregável</t>
+  </si>
+  <si>
+    <t>Fone Sem Fio Baseus Bowie Wm02 Tws Bluetooth 5.3 Bateria 25h Cor Preto</t>
+  </si>
+  <si>
+    <t>Espumas Almofadas Compatível Bose Qc25 Qc35 Qc15 Qc45 Ae2 Cor Preto / LR Preto</t>
+  </si>
+  <si>
+    <t>Fone de ouvido over-ear gamer sem fio Sony Pulse 3D CFI-ZWH1 branco e preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Jbl Tune 520bt Bluetooth 5.3 Bateria 57horas Cor Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Tune 500 Com Fio E Microfone Preto Jbl</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Kaidi 903 Original Nf</t>
+  </si>
+  <si>
+    <t>Fone de ouvido in-ear sem fio Via euro F9-5 01 preto com luz LED</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Over-ear Microsoft Lifechat Lx-3000 Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Lightning Para iPhone 6 7 8 Plus X 11 12 13</t>
+  </si>
+  <si>
+    <t>Telefone Elgin C/fio Ident. Chamadas/viva Voz Tcf 3000 Preto</t>
+  </si>
+  <si>
+    <t>Fone Qcy T17 Bluetooth 5.1 Modo Game E Cancelamento De Ruído Cor Branco</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Intra-auricular Com Fio Tune 110 Preto Jbl</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Original Erdots Y50 Compatível iPhone Cor Preto Ou Branco Cor Da Luz 1bluetooth</t>
+  </si>
+  <si>
+    <t>Fone de ouvido Tune 520bt Branco JBL</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Sem Fio Kaidi KD-772</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Com Microfone Tune 510bt Azul</t>
+  </si>
+  <si>
+    <t>Fone Qcy Ht07 Arcbuds Bluetooth 5.2 Cancelamento De Ruídos Cor Preto</t>
+  </si>
+  <si>
+    <t>Fone Sem Fio Bluetooth Compatível Apple iPhone Airpod Pro</t>
+  </si>
+  <si>
+    <t>Fones De Ouvido Esportivo Com Fio Endurance Run 2 Branco Jbl</t>
+  </si>
+  <si>
+    <t>Fone Bluetooth Gm2 Lenovo Thinkplus Live Pods Pro Tws</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Tws Bluetooth 5.1 Original Kaidi 771 Cor Branco</t>
+  </si>
+  <si>
+    <t>Fones De Ouvido Philips T1207 Wireless 18h Resistência Água</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Qcy T13x Enc Bluetooth 5.3 Ipx5 Cor Preto</t>
+  </si>
+  <si>
+    <t>Fone Ouvido Lightning H'maston Para iPhone 7 8 X Xr Xs Cor Branco</t>
+  </si>
+  <si>
+    <t>Espumas Almofadas Compatível Bose Qc25 Qc35 Qc15 Qc45 Ae2 Cor Preto / LR Azul</t>
+  </si>
+  <si>
+    <t>Fone Sem Fio Bluetooth Compatível Apple iPhone Airpod Pro Cor Branco</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Ambie Corrida Bluetooth Bluetooth Tipo Brinco Cor Preto ou Branco</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Gamer Havit H2230d 7.1 P3 50mm Ps3/ps4/xbox Cor Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Bluetooth Touch Tws Wireless Barato</t>
+  </si>
+  <si>
+    <t>Fone de ouvido over-ear sem fio Edifier W800BT Plus preto com luz LED</t>
+  </si>
+  <si>
+    <t>Tws F9-5 Fone De Ouvido Bluetooth A Prova Dágua E Powerbank</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Lenovo Gm2 AirPods Com Luz De Led</t>
+  </si>
+  <si>
+    <t>Telefone Sem Fio Intelbras Ts 2510 Preto</t>
+  </si>
+  <si>
+    <t>Fone Bluetooth E10 Compatível C/ iPhone Android Prova D'água</t>
+  </si>
+  <si>
+    <t>Par Almofada Espuma Serve P/ Jbl Tune600 T500bt T450 T450bt</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido On-ear Sem Fio Everest Jb950 Preto Branco</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Kz Edx Pro Graves Excelentes Sem Mic + Nf-e</t>
+  </si>
+  <si>
+    <t>Telefone Fixo Elgin Tcf 2000 Branco</t>
+  </si>
+  <si>
+    <t>Fone Compatível iPhone AirPods Pro 3ª Geração Linha Premium</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido In Ear Qkz Ak6 Branco Monitor De Palco + Case</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Tws Prova Dágua E Powerbank Fitness</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Super Bass Graves Acentuados E Cabo Reforçado</t>
+  </si>
+  <si>
+    <t>Fone de ouvido over-ear AKG K72 black</t>
+  </si>
+  <si>
+    <t>Fone Gamer Bluetooth Tws Wireless Aprova De Respingos Dágua</t>
+  </si>
+  <si>
+    <t>Tablet Nb414 Minnie 4gb 64gb 7 Android 13 Multi</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Original Tws In-ear Com Anatel</t>
+  </si>
+  <si>
+    <t>Espuma Compatível Com Hyperx Cloud Stinger Almofada</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Sem Fio Earcuffs Esportivo Nf Brinc</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Bluetooth Gamer Led Qualidade Kaidi Cor Preto Cor da luz Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Kz Edx Sem Microfone - Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Gamer Bluetooth 5.3 Sem Fio Tws Microfone</t>
+  </si>
+  <si>
+    <t>Adaptador Fone Ouvido Usb-c Tipo C P2 S20 S21 S22 Plus Ultra</t>
+  </si>
+  <si>
+    <t>Fone Com Fio Para Celular Samsung S20 S21 A32 A12 S10 M62</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Orelha Gatinho Infantil Led Sem Fio</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Sem Fio Tws Baseus Encok W04 - Cor Branco</t>
+  </si>
+  <si>
+    <t>Adaptador Tipo C Macho Para P2 3,5mm Fêmea Reforçado Essager</t>
+  </si>
+  <si>
+    <t>Fone Bluetooth H´maston Gamer Led 6 Horas De Bateria</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Wave Flex Branco Jbl</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Para iPhone 7 8 X Xr 11 12 13 14 15</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Para iPhone 7 8 Xr X 11 12 13 14 15</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Preto Tah2005bk/00 Philips</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido In-ear Sem Fio Baseus Encok W3 Bluetooth Cor White</t>
+  </si>
+  <si>
+    <t>Tablet Tab M9 Octa-core 4gb 64gb Wi-fi Android 12 Lenovo</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth Air Tws 3 Pro Premium Sem Fio Cor Branco Cor da luz Verde</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Samsung Galaxy Buds2 Pro Cor Violeta</t>
+  </si>
+  <si>
+    <t>Fone Qcy Ailypods Neo Dt08 Bluetooth 5.3 Touch Enc Modo Game Cor Preto QCYDT08-01</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Ambi-e Bluetooth Sem Fio Earcuffs Esportivo</t>
+  </si>
+  <si>
+    <t>Fone de ouvido QKZ Retorno de Palco AK6 AK6 violeta</t>
+  </si>
+  <si>
+    <t>Apple AirPods Pro (2° geração)</t>
+  </si>
+  <si>
+    <t>Rádio Comunicador Motorola Talkabout T210br Alcance Até 32k Cor Preto/vermelho (Par)</t>
+  </si>
+  <si>
+    <t>Fone de ouvido in-ear Hrebos HS-110 preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Philips Tah1108 Bluetooth Preto</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth 5.0 Hi-fi Sem Fio Ant-queda Corrida</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido P/ Dj C/m 7 Posições Ajustáveis - Numark Cor Preto Com Cinza</t>
+  </si>
+  <si>
+    <t>Fone De Ouvido Bluetooth 5.3 Sem Fio - Som Premium Original</t>
+  </si>
+  <si>
     <t>78,90</t>
   </si>
   <si>
@@ -223,7 +508,7 @@
     <t>130,75</t>
   </si>
   <si>
-    <t>314,30</t>
+    <t>339,00</t>
   </si>
   <si>
     <t>29,79</t>
@@ -244,7 +529,7 @@
     <t>1.999,00</t>
   </si>
   <si>
-    <t>13,00</t>
+    <t>12,90</t>
   </si>
   <si>
     <t>145,00</t>
@@ -277,40 +562,40 @@
     <t>21,11</t>
   </si>
   <si>
-    <t>22,25</t>
-  </si>
-  <si>
-    <t>41,99</t>
+    <t>42,15</t>
+  </si>
+  <si>
+    <t>13,25</t>
   </si>
   <si>
     <t>40,00</t>
   </si>
   <si>
-    <t>13,25</t>
+    <t>89,90</t>
   </si>
   <si>
     <t>4.331,00</t>
   </si>
   <si>
-    <t>89,90</t>
-  </si>
-  <si>
     <t>199,00</t>
   </si>
   <si>
+    <t>64,28</t>
+  </si>
+  <si>
     <t>26,70</t>
   </si>
   <si>
     <t>69,84</t>
   </si>
   <si>
-    <t>64,28</t>
+    <t>69,00</t>
   </si>
   <si>
     <t>284,00</t>
   </si>
   <si>
-    <t>65,16</t>
+    <t>76,25</t>
   </si>
   <si>
     <t>29,65</t>
@@ -319,9 +604,6 @@
     <t>54,00</t>
   </si>
   <si>
-    <t>76,25</t>
-  </si>
-  <si>
     <t>74,91</t>
   </si>
   <si>
@@ -335,6 +617,276 @@
   </si>
   <si>
     <t>2.197,00</t>
+  </si>
+  <si>
+    <t>42,00</t>
+  </si>
+  <si>
+    <t>499,00</t>
+  </si>
+  <si>
+    <t>48,57</t>
+  </si>
+  <si>
+    <t>28,39</t>
+  </si>
+  <si>
+    <t>380,00</t>
+  </si>
+  <si>
+    <t>43,59</t>
+  </si>
+  <si>
+    <t>245,00</t>
+  </si>
+  <si>
+    <t>25,63</t>
+  </si>
+  <si>
+    <t>210,00</t>
+  </si>
+  <si>
+    <t>36,03</t>
+  </si>
+  <si>
+    <t>2.810,00</t>
+  </si>
+  <si>
+    <t>359,90</t>
+  </si>
+  <si>
+    <t>65,41</t>
+  </si>
+  <si>
+    <t>149,42</t>
+  </si>
+  <si>
+    <t>599,00</t>
+  </si>
+  <si>
+    <t>39,99</t>
+  </si>
+  <si>
+    <t>41,69</t>
+  </si>
+  <si>
+    <t>35,00</t>
+  </si>
+  <si>
+    <t>59,53</t>
+  </si>
+  <si>
+    <t>134,00</t>
+  </si>
+  <si>
+    <t>49,90</t>
+  </si>
+  <si>
+    <t>621,00</t>
+  </si>
+  <si>
+    <t>244,74</t>
+  </si>
+  <si>
+    <t>109,00</t>
+  </si>
+  <si>
+    <t>51,69</t>
+  </si>
+  <si>
+    <t>34,17</t>
+  </si>
+  <si>
+    <t>219,45</t>
+  </si>
+  <si>
+    <t>24,20</t>
+  </si>
+  <si>
+    <t>110,81</t>
+  </si>
+  <si>
+    <t>139,10</t>
+  </si>
+  <si>
+    <t>38,47</t>
+  </si>
+  <si>
+    <t>40,67</t>
+  </si>
+  <si>
+    <t>265,00</t>
+  </si>
+  <si>
+    <t>78,00</t>
+  </si>
+  <si>
+    <t>49,80</t>
+  </si>
+  <si>
+    <t>258,20</t>
+  </si>
+  <si>
+    <t>129,11</t>
+  </si>
+  <si>
+    <t>119,75</t>
+  </si>
+  <si>
+    <t>87,89</t>
+  </si>
+  <si>
+    <t>61,47</t>
+  </si>
+  <si>
+    <t>162,00</t>
+  </si>
+  <si>
+    <t>16,77</t>
+  </si>
+  <si>
+    <t>22,15</t>
+  </si>
+  <si>
+    <t>72,90</t>
+  </si>
+  <si>
+    <t>155,00</t>
+  </si>
+  <si>
+    <t>43,62</t>
+  </si>
+  <si>
+    <t>299,90</t>
+  </si>
+  <si>
+    <t>27,20</t>
+  </si>
+  <si>
+    <t>149,99</t>
+  </si>
+  <si>
+    <t>126,00</t>
+  </si>
+  <si>
+    <t>47,59</t>
+  </si>
+  <si>
+    <t>40,35</t>
+  </si>
+  <si>
+    <t>80,90</t>
+  </si>
+  <si>
+    <t>110,00</t>
+  </si>
+  <si>
+    <t>49,99</t>
+  </si>
+  <si>
+    <t>28,62</t>
+  </si>
+  <si>
+    <t>149,91</t>
+  </si>
+  <si>
+    <t>49,00</t>
+  </si>
+  <si>
+    <t>178,32</t>
+  </si>
+  <si>
+    <t>49,91</t>
+  </si>
+  <si>
+    <t>309,00</t>
+  </si>
+  <si>
+    <t>109,70</t>
+  </si>
+  <si>
+    <t>389,00</t>
+  </si>
+  <si>
+    <t>59,52</t>
+  </si>
+  <si>
+    <t>77,39</t>
+  </si>
+  <si>
+    <t>68,49</t>
+  </si>
+  <si>
+    <t>80,80</t>
+  </si>
+  <si>
+    <t>68,54</t>
+  </si>
+  <si>
+    <t>19,99</t>
+  </si>
+  <si>
+    <t>15,99</t>
+  </si>
+  <si>
+    <t>72,74</t>
+  </si>
+  <si>
+    <t>269,20</t>
+  </si>
+  <si>
+    <t>15,31</t>
+  </si>
+  <si>
+    <t>109,02</t>
+  </si>
+  <si>
+    <t>399,16</t>
+  </si>
+  <si>
+    <t>139,90</t>
+  </si>
+  <si>
+    <t>109,99</t>
+  </si>
+  <si>
+    <t>259,56</t>
+  </si>
+  <si>
+    <t>1.299,50</t>
+  </si>
+  <si>
+    <t>48,22</t>
+  </si>
+  <si>
+    <t>879,00</t>
+  </si>
+  <si>
+    <t>199,27</t>
+  </si>
+  <si>
+    <t>78,06</t>
+  </si>
+  <si>
+    <t>32,45</t>
+  </si>
+  <si>
+    <t>1.649,00</t>
+  </si>
+  <si>
+    <t>317,15</t>
+  </si>
+  <si>
+    <t>34,12</t>
+  </si>
+  <si>
+    <t>102,00</t>
+  </si>
+  <si>
+    <t>78,99</t>
+  </si>
+  <si>
+    <t>179,99</t>
   </si>
 </sst>
 </file>
@@ -692,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -719,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -727,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -735,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -743,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -751,7 +1303,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -767,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -775,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -783,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -791,7 +1343,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -799,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -807,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -815,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -823,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -831,7 +1383,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -839,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -847,23 +1399,23 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -871,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -879,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -887,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -895,7 +1447,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -903,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -911,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -919,7 +1471,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -927,7 +1479,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -935,7 +1487,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -943,7 +1495,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -951,7 +1503,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -959,7 +1511,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -967,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -975,7 +1527,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -983,7 +1535,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -991,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -999,7 +1551,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1007,7 +1559,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1015,7 +1567,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1023,7 +1575,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1031,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1039,7 +1591,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1047,15 +1599,15 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1063,7 +1615,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1071,7 +1623,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1079,7 +1631,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1087,7 +1639,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1095,7 +1647,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1103,23 +1655,23 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1127,7 +1679,7 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1135,7 +1687,7 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1143,7 +1695,7 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1151,7 +1703,887 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B118" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>103</v>
+      </c>
+      <c r="B119" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>106</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>112</v>
+      </c>
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>113</v>
+      </c>
+      <c r="B132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>116</v>
+      </c>
+      <c r="B135" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B137" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>120</v>
+      </c>
+      <c r="B139" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>123</v>
+      </c>
+      <c r="B142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>126</v>
+      </c>
+      <c r="B145" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>128</v>
+      </c>
+      <c r="B147" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>130</v>
+      </c>
+      <c r="B149" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>133</v>
+      </c>
+      <c r="B152" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>136</v>
+      </c>
+      <c r="B155" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>138</v>
+      </c>
+      <c r="B157" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>139</v>
+      </c>
+      <c r="B158" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>140</v>
+      </c>
+      <c r="B159" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>143</v>
+      </c>
+      <c r="B162" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>145</v>
+      </c>
+      <c r="B164" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>147</v>
+      </c>
+      <c r="B166" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>148</v>
+      </c>
+      <c r="B167" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
